--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{13D91245-91CE-4E87-951E-9ABEA10B1F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD770827-29AB-40B2-BFE0-E7FECA6538BE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="853" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -5140,7 +5140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -6170,7 +6170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:J233"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
